--- a/programing/w_orders.xlsx
+++ b/programing/w_orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coldshutdown_daily_progress_report\programing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coldshutdown_daily_progress_report\programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E05DF98-A433-4C3C-8BA2-ECD8A36350D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4F13E3-E5FE-404F-8811-ACD3AA65468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -134,6 +141,9 @@
           <color rgb="FF3F3F3F"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,7 +159,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}" name="Table1" displayName="Table1" ref="A1:A83" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="2" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}" name="Table1" displayName="Table1" ref="A1:A83" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2" dataCellStyle="Output">
   <autoFilter ref="A1:A83" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0BDCC1A5-2508-4494-A388-7E7F0E40F104}" name="w_orders" dataDxfId="1" dataCellStyle="Output"/>
@@ -424,7 +434,7 @@
   <dimension ref="A1:A83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +858,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/programing/w_orders.xlsx
+++ b/programing/w_orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coldshutdown_daily_progress_report\programing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coldshutdown_daily_progress_report\programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4F13E3-E5FE-404F-8811-ACD3AA65468A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FEE92D-E9D2-43F1-8E56-F37979BDF0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,25 +87,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,15 +100,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -133,7 +123,24 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -141,9 +148,6 @@
           <color rgb="FF3F3F3F"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -159,8 +163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}" name="Table1" displayName="Table1" ref="A1:A83" totalsRowShown="0" dataDxfId="3" tableBorderDxfId="2" dataCellStyle="Output">
-  <autoFilter ref="A1:A83" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}" name="Table1" displayName="Table1" ref="A1:A92" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="5" dataCellStyle="Output">
+  <autoFilter ref="A1:A92" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0BDCC1A5-2508-4494-A388-7E7F0E40F104}" name="w_orders" dataDxfId="1" dataCellStyle="Output"/>
   </tableColumns>
@@ -431,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,417 +453,465 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>93082661</v>
+        <v>93085573</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>93082634</v>
+        <v>93084280</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>93082667</v>
+      <c r="A4" s="1">
+        <v>93085735</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>93082663</v>
+        <v>93087475</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>93082636</v>
+        <v>93085866</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>93082662</v>
+        <v>93083567</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>93087257</v>
+      <c r="A8" s="1">
+        <v>93087455</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>93087360</v>
+      <c r="A9" s="1">
+        <v>93082605</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>93082664</v>
+        <v>93083114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>93082632</v>
+        <v>93082661</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>93082666</v>
+        <v>93082634</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>93082641</v>
+      <c r="A13" s="2">
+        <v>93082667</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>93082665</v>
+        <v>93082663</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>93084780</v>
+        <v>93082636</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>93086458</v>
+        <v>93082662</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>93083112</v>
+      <c r="A17" s="2">
+        <v>93087257</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>93077720</v>
+      <c r="A18" s="2">
+        <v>93087360</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>93066773</v>
+        <v>93082664</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>93083111</v>
+        <v>93082632</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>93082680</v>
+        <v>93082666</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>93083117</v>
+        <v>93082641</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>93083142</v>
+        <v>93082665</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>93083149</v>
+        <v>93084780</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>93083167</v>
+        <v>93086458</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>93083150</v>
+        <v>93083112</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>93083546</v>
+      <c r="A27" s="1">
+        <v>93077720</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>93085868</v>
+        <v>93066773</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>93083152</v>
+        <v>93083111</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>93083151</v>
+        <v>93082680</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>93082595</v>
+        <v>93083117</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>93082591</v>
+        <v>93083142</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>93082597</v>
+        <v>93083149</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>93082596</v>
+        <v>93083167</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>93082590</v>
+        <v>93083150</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>93082593</v>
+      <c r="A36" s="2">
+        <v>93083546</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>93082592</v>
+        <v>93085868</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>93082598</v>
+        <v>93083152</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>93084443</v>
+        <v>93083151</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>93084153</v>
+        <v>93082595</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>93081197</v>
+        <v>93082591</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>93085087</v>
+      <c r="A42" s="1">
+        <v>93082597</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>93082602</v>
+        <v>93082596</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>93082604</v>
+        <v>93082590</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>93082603</v>
+        <v>93082593</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>93083385</v>
+        <v>93082592</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>93085122</v>
+        <v>93082598</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>93081783</v>
+        <v>93084443</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>93083731</v>
+        <v>93084153</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>93084875</v>
+        <v>93081197</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>93078452</v>
+      <c r="A51" s="2">
+        <v>93085087</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>93078559</v>
+        <v>93082602</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>93085026</v>
+        <v>93082604</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>93086353</v>
+        <v>93082603</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>93085988</v>
+        <v>93083385</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>93081196</v>
+        <v>93085122</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>93076942</v>
+        <v>93081783</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>93084517</v>
+        <v>93083731</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>93084693</v>
+        <v>93084875</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>93084512</v>
+        <v>93078452</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>93078761</v>
+        <v>93078559</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>93087590</v>
+        <v>93085026</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>93084694</v>
+        <v>93086353</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>93084829</v>
+        <v>93085988</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>93083354</v>
+        <v>93081196</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>93068361</v>
+        <v>93076942</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>93078933</v>
+        <v>93084517</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>93083353</v>
+        <v>93084693</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>93072684</v>
+        <v>93084512</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>93083355</v>
+        <v>93078761</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>93083358</v>
+        <v>93087590</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>93087272</v>
+        <v>93084694</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>93087274</v>
+        <v>93084829</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>93087275</v>
+        <v>93083354</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>93084250</v>
+        <v>93068361</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>93085863</v>
+        <v>93078933</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>93082585</v>
+        <v>93083353</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>93082581</v>
+        <v>93072684</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>93082586</v>
+        <v>93083355</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>93085864</v>
+        <v>93083358</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>93083038</v>
+        <v>93087272</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
+        <v>93087274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>93087275</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>93084250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>93085863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>93082585</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>93082581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>93082586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>93085864</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>93083038</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>93087239</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>93087243</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A93:A1048576 A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D1048576 A2:A92">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/programing/w_orders.xlsx
+++ b/programing/w_orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coldshutdown_daily_progress_report\programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FEE92D-E9D2-43F1-8E56-F37979BDF0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6999F3-4772-4D99-8A31-82BF097E6201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,24 +94,16 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -121,6 +113,92 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -163,10 +241,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}" name="Table1" displayName="Table1" ref="A1:A92" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="5" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}" name="Table1" displayName="Table1" ref="A1:A92" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="12" dataCellStyle="Output">
   <autoFilter ref="A1:A92" xr:uid="{A5327CBA-5327-41B0-9ACB-9273D53196A3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0BDCC1A5-2508-4494-A388-7E7F0E40F104}" name="w_orders" dataDxfId="1" dataCellStyle="Output"/>
+    <tableColumn id="1" xr3:uid="{0BDCC1A5-2508-4494-A388-7E7F0E40F104}" name="w_orders" dataDxfId="9" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,17 +515,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -507,7 +585,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>93082667</v>
       </c>
     </row>
@@ -527,12 +605,12 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>93087257</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>93087360</v>
       </c>
     </row>
@@ -622,7 +700,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>93083546</v>
       </c>
     </row>
@@ -697,7 +775,7 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>93085087</v>
       </c>
     </row>
@@ -908,10 +986,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A93:A1048576 A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D1048576 A2:A92">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
